--- a/clean/name/12013C.xlsx
+++ b/clean/name/12013C.xlsx
@@ -407,7 +407,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D3">
@@ -427,7 +427,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D4">
@@ -462,7 +462,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D6">
@@ -527,7 +527,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D10">
@@ -547,7 +547,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D11">
@@ -597,7 +597,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D14">
@@ -647,7 +647,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D17">
@@ -667,7 +667,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D18">
@@ -687,7 +687,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D19">
@@ -707,7 +707,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D20">
@@ -727,7 +727,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D21">
@@ -762,7 +762,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D23">
@@ -842,7 +842,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C.R.P.(Latex)</t>
+          <t>C.R.P.(Latex fixation test)</t>
         </is>
       </c>
       <c r="D28">
